--- a/Model/BayesLSTM/Univariate/result/Manufacturing/IND.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/IND.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>15.85619926452637</v>
+        <v>16.08031845092773</v>
       </c>
       <c r="C2" t="n">
-        <v>15.31542682647705</v>
+        <v>15.57883358001709</v>
       </c>
       <c r="D2" t="n">
-        <v>16.39697074890137</v>
+        <v>16.58180236816406</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>15.80818176269531</v>
+        <v>16.04505348205566</v>
       </c>
       <c r="C3" t="n">
-        <v>15.1425724029541</v>
+        <v>15.58631038665771</v>
       </c>
       <c r="D3" t="n">
-        <v>16.47379112243652</v>
+        <v>16.5037956237793</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>15.82601928710938</v>
+        <v>16.00563621520996</v>
       </c>
       <c r="C4" t="n">
-        <v>15.38206100463867</v>
+        <v>15.48381042480469</v>
       </c>
       <c r="D4" t="n">
-        <v>16.26997756958008</v>
+        <v>16.52746200561523</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>15.82676887512207</v>
+        <v>16.11572074890137</v>
       </c>
       <c r="C5" t="n">
-        <v>15.23048114776611</v>
+        <v>15.50087356567383</v>
       </c>
       <c r="D5" t="n">
-        <v>16.42305564880371</v>
+        <v>16.73056793212891</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>15.78897857666016</v>
+        <v>16.07111358642578</v>
       </c>
       <c r="C6" t="n">
-        <v>15.15106868743896</v>
+        <v>15.731689453125</v>
       </c>
       <c r="D6" t="n">
-        <v>16.42688941955566</v>
+        <v>16.41053771972656</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>15.85689067840576</v>
+        <v>16.02941513061523</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3976993560791</v>
+        <v>15.48717498779297</v>
       </c>
       <c r="D7" t="n">
-        <v>16.31608200073242</v>
+        <v>16.5716552734375</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>15.81704998016357</v>
+        <v>15.98911762237549</v>
       </c>
       <c r="C8" t="n">
-        <v>15.40877723693848</v>
+        <v>15.55738735198975</v>
       </c>
       <c r="D8" t="n">
-        <v>16.22532272338867</v>
+        <v>16.42084884643555</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>15.83897972106934</v>
+        <v>16.02663230895996</v>
       </c>
       <c r="C9" t="n">
-        <v>15.28244495391846</v>
+        <v>15.68756103515625</v>
       </c>
       <c r="D9" t="n">
-        <v>16.39551544189453</v>
+        <v>16.36570358276367</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>15.88478851318359</v>
+        <v>16.19725608825684</v>
       </c>
       <c r="C10" t="n">
-        <v>15.44600200653076</v>
+        <v>15.81284713745117</v>
       </c>
       <c r="D10" t="n">
-        <v>16.32357597351074</v>
+        <v>16.5816650390625</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>15.87049579620361</v>
+        <v>16.22942352294922</v>
       </c>
       <c r="C11" t="n">
-        <v>15.27537059783936</v>
+        <v>15.64182090759277</v>
       </c>
       <c r="D11" t="n">
-        <v>16.46562004089355</v>
+        <v>16.81702613830566</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>15.81065082550049</v>
+        <v>16.12597846984863</v>
       </c>
       <c r="C12" t="n">
-        <v>15.38592338562012</v>
+        <v>15.32312202453613</v>
       </c>
       <c r="D12" t="n">
-        <v>16.23537826538086</v>
+        <v>16.92883491516113</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>15.86065864562988</v>
+        <v>15.96312141418457</v>
       </c>
       <c r="C13" t="n">
-        <v>15.55906391143799</v>
+        <v>15.39210414886475</v>
       </c>
       <c r="D13" t="n">
-        <v>16.16225242614746</v>
+        <v>16.53413963317871</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>15.86174964904785</v>
+        <v>16.07635116577148</v>
       </c>
       <c r="C14" t="n">
-        <v>15.43331336975098</v>
+        <v>15.67466259002686</v>
       </c>
       <c r="D14" t="n">
-        <v>16.29018592834473</v>
+        <v>16.47804069519043</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>15.86002349853516</v>
+        <v>16.1978816986084</v>
       </c>
       <c r="C15" t="n">
-        <v>15.47927474975586</v>
+        <v>15.83526802062988</v>
       </c>
       <c r="D15" t="n">
-        <v>16.24077224731445</v>
+        <v>16.56049537658691</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>15.86100482940674</v>
+        <v>16.08861923217773</v>
       </c>
       <c r="C16" t="n">
-        <v>15.25618553161621</v>
+        <v>15.24873638153076</v>
       </c>
       <c r="D16" t="n">
-        <v>16.46582412719727</v>
+        <v>16.92850112915039</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>15.92689037322998</v>
+        <v>16.10035705566406</v>
       </c>
       <c r="C17" t="n">
-        <v>15.59846115112305</v>
+        <v>15.30995750427246</v>
       </c>
       <c r="D17" t="n">
-        <v>16.25531959533691</v>
+        <v>16.89075660705566</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>15.96310710906982</v>
+        <v>15.99817085266113</v>
       </c>
       <c r="C18" t="n">
-        <v>15.60053730010986</v>
+        <v>15.34783935546875</v>
       </c>
       <c r="D18" t="n">
-        <v>16.3256778717041</v>
+        <v>16.64850234985352</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>15.92013835906982</v>
+        <v>16.09927368164062</v>
       </c>
       <c r="C19" t="n">
-        <v>15.65391635894775</v>
+        <v>15.42425155639648</v>
       </c>
       <c r="D19" t="n">
-        <v>16.18635940551758</v>
+        <v>16.77429580688477</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>15.86971092224121</v>
+        <v>16.02445411682129</v>
       </c>
       <c r="C20" t="n">
-        <v>15.45008182525635</v>
+        <v>15.48483657836914</v>
       </c>
       <c r="D20" t="n">
-        <v>16.28933906555176</v>
+        <v>16.56407165527344</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>15.87603187561035</v>
+        <v>16.11000061035156</v>
       </c>
       <c r="C21" t="n">
-        <v>15.44700813293457</v>
+        <v>15.4459400177002</v>
       </c>
       <c r="D21" t="n">
-        <v>16.30505561828613</v>
+        <v>16.77406120300293</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>15.87041664123535</v>
+        <v>15.98066139221191</v>
       </c>
       <c r="C22" t="n">
-        <v>15.45432758331299</v>
+        <v>15.31664371490479</v>
       </c>
       <c r="D22" t="n">
-        <v>16.2865047454834</v>
+        <v>16.64467811584473</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>15.89917278289795</v>
+        <v>16.08906364440918</v>
       </c>
       <c r="C23" t="n">
-        <v>15.50945663452148</v>
+        <v>15.27956676483154</v>
       </c>
       <c r="D23" t="n">
-        <v>16.28888893127441</v>
+        <v>16.8985595703125</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>15.86884880065918</v>
+        <v>15.90961742401123</v>
       </c>
       <c r="C24" t="n">
-        <v>15.48397350311279</v>
+        <v>15.29895401000977</v>
       </c>
       <c r="D24" t="n">
-        <v>16.25372314453125</v>
+        <v>16.5202808380127</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>15.85091400146484</v>
+        <v>15.95485496520996</v>
       </c>
       <c r="C25" t="n">
-        <v>15.48211574554443</v>
+        <v>15.22478771209717</v>
       </c>
       <c r="D25" t="n">
-        <v>16.21971321105957</v>
+        <v>16.68492317199707</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>15.84193706512451</v>
+        <v>16.05651473999023</v>
       </c>
       <c r="C26" t="n">
-        <v>15.41127681732178</v>
+        <v>15.50899791717529</v>
       </c>
       <c r="D26" t="n">
-        <v>16.27259826660156</v>
+        <v>16.60403060913086</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>15.83623313903809</v>
+        <v>16.08012008666992</v>
       </c>
       <c r="C27" t="n">
-        <v>15.35785293579102</v>
+        <v>15.43076229095459</v>
       </c>
       <c r="D27" t="n">
-        <v>16.31461334228516</v>
+        <v>16.72947692871094</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>15.89167308807373</v>
+        <v>16.12257766723633</v>
       </c>
       <c r="C28" t="n">
-        <v>15.44572925567627</v>
+        <v>15.12690162658691</v>
       </c>
       <c r="D28" t="n">
-        <v>16.33761596679688</v>
+        <v>17.11825370788574</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>15.86190319061279</v>
+        <v>16.15160942077637</v>
       </c>
       <c r="C29" t="n">
-        <v>15.39193439483643</v>
+        <v>15.5032787322998</v>
       </c>
       <c r="D29" t="n">
-        <v>16.33187103271484</v>
+        <v>16.79994010925293</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>15.86352252960205</v>
+        <v>16.09368896484375</v>
       </c>
       <c r="C30" t="n">
-        <v>15.4426441192627</v>
+        <v>15.3841552734375</v>
       </c>
       <c r="D30" t="n">
-        <v>16.28440093994141</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>15.86160755157471</v>
-      </c>
-      <c r="C31" t="n">
-        <v>15.43928813934326</v>
-      </c>
-      <c r="D31" t="n">
-        <v>16.28392601013184</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>15.91213798522949</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15.50474262237549</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.31953430175781</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>15.90028667449951</v>
-      </c>
-      <c r="C33" t="n">
-        <v>15.57057762145996</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16.22999572753906</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>15.85702800750732</v>
-      </c>
-      <c r="C34" t="n">
-        <v>15.38356018066406</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16.33049583435059</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>15.92550086975098</v>
-      </c>
-      <c r="C35" t="n">
-        <v>15.46493816375732</v>
-      </c>
-      <c r="D35" t="n">
-        <v>16.38606452941895</v>
+        <v>16.80322265625</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>16.20334844589233</v>
+        <v>16.09880447387695</v>
       </c>
       <c r="C2" t="n">
-        <v>15.84221990370309</v>
+        <v>15.54587459564209</v>
       </c>
       <c r="D2" t="n">
-        <v>16.56447698808158</v>
+        <v>16.6517333984375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>16.66385765075684</v>
+        <v>16.24659538269043</v>
       </c>
       <c r="C3" t="n">
-        <v>16.36460600128597</v>
+        <v>15.7883882522583</v>
       </c>
       <c r="D3" t="n">
-        <v>16.9631093002277</v>
+        <v>16.70480155944824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>16.09114093780518</v>
+        <v>15.96883583068848</v>
       </c>
       <c r="C4" t="n">
-        <v>15.59834345595786</v>
+        <v>15.14671993255615</v>
       </c>
       <c r="D4" t="n">
-        <v>16.58393841965249</v>
+        <v>16.79095077514648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>15.85007705688477</v>
+        <v>16.05701065063477</v>
       </c>
       <c r="C5" t="n">
-        <v>15.65942023197329</v>
+        <v>15.49057960510254</v>
       </c>
       <c r="D5" t="n">
-        <v>16.04073388179624</v>
+        <v>16.62344169616699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>15.83097486495972</v>
+        <v>16.1877384185791</v>
       </c>
       <c r="C6" t="n">
-        <v>15.32264216104408</v>
+        <v>15.38895034790039</v>
       </c>
       <c r="D6" t="n">
-        <v>16.33930756887535</v>
+        <v>16.98652648925781</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>15.85461139678955</v>
+        <v>16.0750846862793</v>
       </c>
       <c r="C2" t="n">
-        <v>15.59301376342773</v>
+        <v>15.61450958251953</v>
       </c>
       <c r="D2" t="n">
-        <v>16.11620903015137</v>
+        <v>16.53565979003906</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>15.91141700744629</v>
+        <v>15.95711517333984</v>
       </c>
       <c r="C3" t="n">
-        <v>15.45580673217773</v>
+        <v>15.37323188781738</v>
       </c>
       <c r="D3" t="n">
-        <v>16.36702728271484</v>
+        <v>16.5409984588623</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>15.9552583694458</v>
+        <v>16.01174545288086</v>
       </c>
       <c r="C4" t="n">
-        <v>15.65334129333496</v>
+        <v>15.52508068084717</v>
       </c>
       <c r="D4" t="n">
-        <v>16.25717544555664</v>
+        <v>16.49840927124023</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>15.93270874023438</v>
+        <v>16.00753211975098</v>
       </c>
       <c r="C5" t="n">
-        <v>15.49576377868652</v>
+        <v>15.49364566802979</v>
       </c>
       <c r="D5" t="n">
-        <v>16.36965370178223</v>
+        <v>16.52141952514648</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9201602935791</v>
+        <v>16.07215118408203</v>
       </c>
       <c r="C6" t="n">
-        <v>15.53760814666748</v>
+        <v>15.62011432647705</v>
       </c>
       <c r="D6" t="n">
-        <v>16.30271148681641</v>
+        <v>16.5241870880127</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>15.88818836212158</v>
+        <v>16.10378265380859</v>
       </c>
       <c r="C7" t="n">
-        <v>15.36119937896729</v>
+        <v>15.71084308624268</v>
       </c>
       <c r="D7" t="n">
-        <v>16.4151782989502</v>
+        <v>16.4967212677002</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>15.98433208465576</v>
+        <v>15.96422100067139</v>
       </c>
       <c r="C8" t="n">
-        <v>15.48631954193115</v>
+        <v>15.52199363708496</v>
       </c>
       <c r="D8" t="n">
-        <v>16.48234558105469</v>
+        <v>16.40644836425781</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>15.9494686126709</v>
+        <v>15.96811962127686</v>
       </c>
       <c r="C9" t="n">
-        <v>15.42509078979492</v>
+        <v>15.44450092315674</v>
       </c>
       <c r="D9" t="n">
-        <v>16.47384643554688</v>
+        <v>16.49173736572266</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>15.98542976379395</v>
+        <v>15.92624187469482</v>
       </c>
       <c r="C10" t="n">
-        <v>15.55949211120605</v>
+        <v>15.47090721130371</v>
       </c>
       <c r="D10" t="n">
-        <v>16.41136741638184</v>
+        <v>16.38157653808594</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>15.98033905029297</v>
+        <v>16.05879211425781</v>
       </c>
       <c r="C11" t="n">
-        <v>15.55348777770996</v>
+        <v>15.55894470214844</v>
       </c>
       <c r="D11" t="n">
-        <v>16.40719032287598</v>
+        <v>16.55863952636719</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>15.96214580535889</v>
+        <v>16.06071281433105</v>
       </c>
       <c r="C12" t="n">
-        <v>15.46092510223389</v>
+        <v>15.72077560424805</v>
       </c>
       <c r="D12" t="n">
-        <v>16.46336555480957</v>
+        <v>16.40065002441406</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>15.9569091796875</v>
+        <v>15.89639854431152</v>
       </c>
       <c r="C13" t="n">
-        <v>15.44096851348877</v>
+        <v>15.47260284423828</v>
       </c>
       <c r="D13" t="n">
-        <v>16.47285079956055</v>
+        <v>16.32019424438477</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>16.00757217407227</v>
+        <v>15.96512889862061</v>
       </c>
       <c r="C14" t="n">
-        <v>15.58895874023438</v>
+        <v>15.58564853668213</v>
       </c>
       <c r="D14" t="n">
-        <v>16.42618560791016</v>
+        <v>16.3446102142334</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>15.97994232177734</v>
+        <v>15.95876312255859</v>
       </c>
       <c r="C15" t="n">
-        <v>15.58789730072021</v>
+        <v>15.54990577697754</v>
       </c>
       <c r="D15" t="n">
-        <v>16.37198638916016</v>
+        <v>16.36762046813965</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>15.90787506103516</v>
+        <v>15.99096965789795</v>
       </c>
       <c r="C16" t="n">
-        <v>15.43208599090576</v>
+        <v>15.30558681488037</v>
       </c>
       <c r="D16" t="n">
-        <v>16.38366508483887</v>
+        <v>16.67635345458984</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>15.92862510681152</v>
+        <v>16.06448554992676</v>
       </c>
       <c r="C17" t="n">
-        <v>15.43859386444092</v>
+        <v>15.49888229370117</v>
       </c>
       <c r="D17" t="n">
-        <v>16.41865539550781</v>
+        <v>16.63008880615234</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0547924041748</v>
+        <v>16.06857299804688</v>
       </c>
       <c r="C18" t="n">
-        <v>15.63853931427002</v>
+        <v>15.79838848114014</v>
       </c>
       <c r="D18" t="n">
-        <v>16.47104454040527</v>
+        <v>16.33875846862793</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>15.9530029296875</v>
+        <v>16.02437591552734</v>
       </c>
       <c r="C19" t="n">
-        <v>15.44579982757568</v>
+        <v>15.60568332672119</v>
       </c>
       <c r="D19" t="n">
-        <v>16.460205078125</v>
+        <v>16.44306755065918</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>15.90660667419434</v>
+        <v>15.98015117645264</v>
       </c>
       <c r="C20" t="n">
-        <v>15.39727401733398</v>
+        <v>15.65061569213867</v>
       </c>
       <c r="D20" t="n">
-        <v>16.41593933105469</v>
+        <v>16.3096866607666</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>16.00413131713867</v>
+        <v>16.03989410400391</v>
       </c>
       <c r="C21" t="n">
-        <v>15.47412872314453</v>
+        <v>15.58904838562012</v>
       </c>
       <c r="D21" t="n">
-        <v>16.53413391113281</v>
+        <v>16.4907398223877</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>15.99506855010986</v>
+        <v>15.92918968200684</v>
       </c>
       <c r="C22" t="n">
-        <v>15.39385223388672</v>
+        <v>15.56818675994873</v>
       </c>
       <c r="D22" t="n">
-        <v>16.59628486633301</v>
+        <v>16.29019165039062</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>15.98862743377686</v>
+        <v>15.98515605926514</v>
       </c>
       <c r="C23" t="n">
-        <v>15.55211544036865</v>
+        <v>15.46096324920654</v>
       </c>
       <c r="D23" t="n">
-        <v>16.42513847351074</v>
+        <v>16.50934982299805</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>16.01390266418457</v>
+        <v>16.02338409423828</v>
       </c>
       <c r="C24" t="n">
-        <v>15.64382171630859</v>
+        <v>15.59136867523193</v>
       </c>
       <c r="D24" t="n">
-        <v>16.38398361206055</v>
+        <v>16.45540046691895</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>15.96224689483643</v>
+        <v>15.99591636657715</v>
       </c>
       <c r="C25" t="n">
-        <v>15.51510429382324</v>
+        <v>15.47298145294189</v>
       </c>
       <c r="D25" t="n">
-        <v>16.40938949584961</v>
+        <v>16.51885223388672</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0188102722168</v>
+        <v>15.92933082580566</v>
       </c>
       <c r="C26" t="n">
-        <v>15.46983814239502</v>
+        <v>15.40267181396484</v>
       </c>
       <c r="D26" t="n">
-        <v>16.56778144836426</v>
+        <v>16.45598983764648</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>15.92362689971924</v>
+        <v>16.03506660461426</v>
       </c>
       <c r="C27" t="n">
-        <v>15.48917007446289</v>
+        <v>15.60522842407227</v>
       </c>
       <c r="D27" t="n">
-        <v>16.35808372497559</v>
+        <v>16.46490478515625</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>15.91204357147217</v>
+        <v>16.06597709655762</v>
       </c>
       <c r="C28" t="n">
-        <v>15.61911392211914</v>
+        <v>15.71755886077881</v>
       </c>
       <c r="D28" t="n">
-        <v>16.2049732208252</v>
+        <v>16.41439628601074</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>15.87746715545654</v>
+        <v>16.01645278930664</v>
       </c>
       <c r="C29" t="n">
-        <v>15.54325199127197</v>
+        <v>15.48768615722656</v>
       </c>
       <c r="D29" t="n">
-        <v>16.21168327331543</v>
+        <v>16.54521942138672</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>15.834716796875</v>
+        <v>16.10928153991699</v>
       </c>
       <c r="C30" t="n">
-        <v>15.45392322540283</v>
+        <v>15.46972370147705</v>
       </c>
       <c r="D30" t="n">
-        <v>16.21550941467285</v>
+        <v>16.74884033203125</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>15.86117362976074</v>
+        <v>16.02017593383789</v>
       </c>
       <c r="C31" t="n">
-        <v>15.45354080200195</v>
+        <v>15.44751071929932</v>
       </c>
       <c r="D31" t="n">
-        <v>16.26880645751953</v>
+        <v>16.59284210205078</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>15.96187591552734</v>
+        <v>15.88125324249268</v>
       </c>
       <c r="C32" t="n">
-        <v>15.43436527252197</v>
+        <v>15.65321063995361</v>
       </c>
       <c r="D32" t="n">
-        <v>16.48938751220703</v>
+        <v>16.10929489135742</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>15.93044090270996</v>
+        <v>15.99448871612549</v>
       </c>
       <c r="C33" t="n">
-        <v>15.39962387084961</v>
+        <v>15.58062744140625</v>
       </c>
       <c r="D33" t="n">
-        <v>16.46125793457031</v>
+        <v>16.40834999084473</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>15.9852466583252</v>
+        <v>15.96635437011719</v>
       </c>
       <c r="C34" t="n">
-        <v>15.48054027557373</v>
+        <v>15.57734775543213</v>
       </c>
       <c r="D34" t="n">
-        <v>16.48995399475098</v>
+        <v>16.35536003112793</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>16.01618957519531</v>
+        <v>15.95373249053955</v>
       </c>
       <c r="C35" t="n">
-        <v>15.476881980896</v>
+        <v>15.48205852508545</v>
       </c>
       <c r="D35" t="n">
-        <v>16.55549621582031</v>
+        <v>16.42540740966797</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>15.41571483612061</v>
+        <v>15.74954643249512</v>
       </c>
       <c r="C2" t="n">
-        <v>15.15432575135326</v>
+        <v>15.35524758855538</v>
       </c>
       <c r="D2" t="n">
-        <v>15.67710392088795</v>
+        <v>16.14384527643486</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>16.02691049575806</v>
+        <v>15.64263877868652</v>
       </c>
       <c r="C3" t="n">
-        <v>15.61331947923846</v>
+        <v>15.31728210034116</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44050151227765</v>
+        <v>15.96799545703188</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>15.79432277679443</v>
+        <v>15.58605613708496</v>
       </c>
       <c r="C4" t="n">
-        <v>15.39058110609693</v>
+        <v>15.07912986292588</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19806444749194</v>
+        <v>16.09298241124404</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>16.24099159240723</v>
+        <v>16.51337242126465</v>
       </c>
       <c r="C5" t="n">
-        <v>15.88142560900067</v>
+        <v>15.88472643051164</v>
       </c>
       <c r="D5" t="n">
-        <v>16.60055757581378</v>
+        <v>17.14201841201766</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>15.89191417694092</v>
+        <v>16.13518705368042</v>
       </c>
       <c r="C6" t="n">
-        <v>15.53110953542629</v>
+        <v>15.77907795850076</v>
       </c>
       <c r="D6" t="n">
-        <v>16.25271881845555</v>
+        <v>16.49129614886008</v>
       </c>
     </row>
   </sheetData>
